--- a/laboratory/lab02/report/Права доступа.xlsx
+++ b/laboratory/lab02/report/Права доступа.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kirilldi/University/2021-2022/InfoSec/laboratory/lab02/report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE3965BE-A3B7-5A46-8778-E3E213BF19D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC84F4B-06EE-6545-844D-96BADA66689A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="500" windowWidth="10000" windowHeight="12300" xr2:uid="{91ADE56E-5D68-F445-8FCB-C6AE1FD84B57}"/>
+    <workbookView xWindow="900" yWindow="500" windowWidth="10000" windowHeight="12300" activeTab="1" xr2:uid="{91ADE56E-5D68-F445-8FCB-C6AE1FD84B57}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Права группы" sheetId="2" r:id="rId1"/>
+    <sheet name="Минимальные права доступа" sheetId="3" r:id="rId2"/>
+    <sheet name="Права пользователя" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029" refMode="R1C1"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="58">
   <si>
     <t>Права директории</t>
   </si>
@@ -118,13 +120,103 @@
   </si>
   <si>
     <t>+</t>
+  </si>
+  <si>
+    <t>--x (010)</t>
+  </si>
+  <si>
+    <t>-w- (020)</t>
+  </si>
+  <si>
+    <t>-wx (030)</t>
+  </si>
+  <si>
+    <t>r-- (040)</t>
+  </si>
+  <si>
+    <t>r-x (050)</t>
+  </si>
+  <si>
+    <t>rw- (060)</t>
+  </si>
+  <si>
+    <t>rwx (070)</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>020</t>
+  </si>
+  <si>
+    <t>030</t>
+  </si>
+  <si>
+    <t>040</t>
+  </si>
+  <si>
+    <t>050</t>
+  </si>
+  <si>
+    <t>060</t>
+  </si>
+  <si>
+    <t>070</t>
+  </si>
+  <si>
+    <t>Операция</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Минимальные права на директорию </t>
+  </si>
+  <si>
+    <t>Минимальные права на файл</t>
+  </si>
+  <si>
+    <t>Создание файла</t>
+  </si>
+  <si>
+    <t>Чтение файла</t>
+  </si>
+  <si>
+    <t>Удаление файла</t>
+  </si>
+  <si>
+    <t>Запись в файл</t>
+  </si>
+  <si>
+    <t>Переименование файла</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Создание поддиректории </t>
+  </si>
+  <si>
+    <t>Удаление поддиректории</t>
+  </si>
+  <si>
+    <t>d----wx--- (030)</t>
+  </si>
+  <si>
+    <t>---------- (000)</t>
+  </si>
+  <si>
+    <t>'---------- (000)</t>
+  </si>
+  <si>
+    <t>---r------ (040)</t>
+  </si>
+  <si>
+    <t>-----w---- (020)</t>
+  </si>
+  <si>
+    <t>d-----x--- (010)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -140,6 +232,14 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -149,7 +249,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -157,13 +257,108 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -477,10 +672,2226 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BDE2EEE-106A-D84B-899E-D00B297614CF}">
+  <dimension ref="A1:J65"/>
+  <sheetViews>
+    <sheetView zoomScale="44" workbookViewId="0">
+      <selection activeCell="G61" sqref="G61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="B2:B9" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03E5F15B-6CD3-664F-91CF-A94725AA3652}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD0E572-C725-2644-B43E-76CF30E4DA68}">
   <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="42" workbookViewId="0">
+    <sheetView zoomScale="56" workbookViewId="0">
       <selection activeCell="J67" sqref="J67"/>
     </sheetView>
   </sheetViews>
